--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna4-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna4-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Efna4</t>
+  </si>
+  <si>
+    <t>Epha7</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efna4</t>
-  </si>
-  <si>
-    <t>Epha7</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H2">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I2">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J2">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +558,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.3423605</v>
+        <v>0.2371515</v>
       </c>
       <c r="N2">
-        <v>0.684721</v>
+        <v>0.474303</v>
       </c>
       <c r="O2">
-        <v>0.2024379518768077</v>
+        <v>0.1229805122625808</v>
       </c>
       <c r="P2">
-        <v>0.1895111415682583</v>
+        <v>0.1147457658281868</v>
       </c>
       <c r="Q2">
-        <v>0.675727874386</v>
+        <v>0.1411115455905</v>
       </c>
       <c r="R2">
-        <v>2.702911497544</v>
+        <v>0.5644461823619999</v>
       </c>
       <c r="S2">
-        <v>0.09906461768771165</v>
+        <v>0.04576742851702747</v>
       </c>
       <c r="T2">
-        <v>0.07640015684074924</v>
+        <v>0.036418523532296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H3">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I3">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J3">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +626,22 @@
         <v>0.309653</v>
       </c>
       <c r="O3">
-        <v>0.0610326630481701</v>
+        <v>0.05352595923371758</v>
       </c>
       <c r="P3">
-        <v>0.08570307252156119</v>
+        <v>0.07491281022046142</v>
       </c>
       <c r="Q3">
-        <v>0.2037240116653333</v>
+        <v>0.06141729854366666</v>
       </c>
       <c r="R3">
-        <v>1.222344069992</v>
+        <v>0.3685037912619999</v>
       </c>
       <c r="S3">
-        <v>0.0298668178336899</v>
+        <v>0.01991978621624167</v>
       </c>
       <c r="T3">
-        <v>0.03455062392742231</v>
+        <v>0.02377616221560069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H4">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I4">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J4">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01332233333333333</v>
+        <v>0.04845666666666667</v>
       </c>
       <c r="N4">
-        <v>0.039967</v>
+        <v>0.14537</v>
       </c>
       <c r="O4">
-        <v>0.007877503024502313</v>
+        <v>0.02512834913211087</v>
       </c>
       <c r="P4">
-        <v>0.01106171972972726</v>
+        <v>0.03516864109744933</v>
       </c>
       <c r="Q4">
-        <v>0.02629471561466667</v>
+        <v>0.02883302499666667</v>
       </c>
       <c r="R4">
-        <v>0.157768293688</v>
+        <v>0.17299814998</v>
       </c>
       <c r="S4">
-        <v>0.003854918597136421</v>
+        <v>0.009351562304434485</v>
       </c>
       <c r="T4">
-        <v>0.004459458770001541</v>
+        <v>0.01116198034988155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H5">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I5">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J5">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1181105</v>
+        <v>1.414436</v>
       </c>
       <c r="N5">
-        <v>2.236221</v>
+        <v>2.828872</v>
       </c>
       <c r="O5">
-        <v>0.6611393533773707</v>
+        <v>0.7334891992782493</v>
       </c>
       <c r="P5">
-        <v>0.6189218594272882</v>
+        <v>0.6843749334706176</v>
       </c>
       <c r="Q5">
-        <v>2.206850473386</v>
+        <v>0.841627609772</v>
       </c>
       <c r="R5">
-        <v>8.827401893544</v>
+        <v>3.366510439088</v>
       </c>
       <c r="S5">
-        <v>0.3235337873823531</v>
+        <v>0.2729693825335714</v>
       </c>
       <c r="T5">
-        <v>0.2495142329950113</v>
+        <v>0.2172099723211813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.973732</v>
+        <v>0.595027</v>
       </c>
       <c r="H6">
-        <v>3.947464</v>
+        <v>1.190054</v>
       </c>
       <c r="I6">
-        <v>0.4893579329828272</v>
+        <v>0.3721518773584837</v>
       </c>
       <c r="J6">
-        <v>0.4031433519344368</v>
+        <v>0.3173844652954502</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1141763333333333</v>
+        <v>0.1251046666666667</v>
       </c>
       <c r="N6">
-        <v>0.342529</v>
+        <v>0.375314</v>
       </c>
       <c r="O6">
-        <v>0.06751252867314916</v>
+        <v>0.06487598009334153</v>
       </c>
       <c r="P6">
-        <v>0.0948022067531651</v>
+        <v>0.09079784938328471</v>
       </c>
       <c r="Q6">
-        <v>0.2253534827426667</v>
+        <v>0.07444065449266667</v>
       </c>
       <c r="R6">
-        <v>1.352120896456</v>
+        <v>0.446643926956</v>
       </c>
       <c r="S6">
-        <v>0.03303779148193613</v>
+        <v>0.02414371778720867</v>
       </c>
       <c r="T6">
-        <v>0.03821887940125248</v>
+        <v>0.02881782687649064</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -859,10 +856,10 @@
         <v>1.655405</v>
       </c>
       <c r="I7">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J7">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +868,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.3423605</v>
+        <v>0.2371515</v>
       </c>
       <c r="N7">
-        <v>0.684721</v>
+        <v>0.474303</v>
       </c>
       <c r="O7">
-        <v>0.2024379518768077</v>
+        <v>0.1229805122625808</v>
       </c>
       <c r="P7">
-        <v>0.1895111415682583</v>
+        <v>0.1147457658281868</v>
       </c>
       <c r="Q7">
-        <v>0.1889150945008333</v>
+        <v>0.1308605929525</v>
       </c>
       <c r="R7">
-        <v>1.133490567005</v>
+        <v>0.785163557715</v>
       </c>
       <c r="S7">
-        <v>0.02769576677470671</v>
+        <v>0.04244268467606224</v>
       </c>
       <c r="T7">
-        <v>0.03203910197406753</v>
+        <v>0.05065938684125296</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -921,10 +918,10 @@
         <v>1.655405</v>
       </c>
       <c r="I8">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J8">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -939,22 +936,22 @@
         <v>0.309653</v>
       </c>
       <c r="O8">
-        <v>0.0610326630481701</v>
+        <v>0.05352595923371758</v>
       </c>
       <c r="P8">
-        <v>0.08570307252156119</v>
+        <v>0.07491281022046142</v>
       </c>
       <c r="Q8">
-        <v>0.05695568049611111</v>
+        <v>0.0569556804961111</v>
       </c>
       <c r="R8">
-        <v>0.5126011244650001</v>
+        <v>0.5126011244649999</v>
       </c>
       <c r="S8">
-        <v>0.008349948148309805</v>
+        <v>0.01847272684057336</v>
       </c>
       <c r="T8">
-        <v>0.01448911898945108</v>
+        <v>0.03307343852675295</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +980,40 @@
         <v>1.655405</v>
       </c>
       <c r="I9">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J9">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01332233333333333</v>
+        <v>0.04845666666666667</v>
       </c>
       <c r="N9">
-        <v>0.039967</v>
+        <v>0.14537</v>
       </c>
       <c r="O9">
-        <v>0.007877503024502313</v>
+        <v>0.02512834913211087</v>
       </c>
       <c r="P9">
-        <v>0.01106171972972726</v>
+        <v>0.03516864109744933</v>
       </c>
       <c r="Q9">
-        <v>0.007351285737222222</v>
+        <v>0.02673846942777778</v>
       </c>
       <c r="R9">
-        <v>0.066161571635</v>
+        <v>0.24064622485</v>
       </c>
       <c r="S9">
-        <v>0.001077730161320891</v>
+        <v>0.008672224395740231</v>
       </c>
       <c r="T9">
-        <v>0.001870114672395847</v>
+        <v>0.01552668877302683</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1042,10 @@
         <v>1.655405</v>
       </c>
       <c r="I10">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J10">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.1181105</v>
+        <v>1.414436</v>
       </c>
       <c r="N10">
-        <v>2.236221</v>
+        <v>2.828872</v>
       </c>
       <c r="O10">
-        <v>0.6611393533773707</v>
+        <v>0.7334891992782493</v>
       </c>
       <c r="P10">
-        <v>0.6189218594272882</v>
+        <v>0.6843749334706176</v>
       </c>
       <c r="Q10">
-        <v>0.6169752374174999</v>
+        <v>0.7804881421933333</v>
       </c>
       <c r="R10">
-        <v>3.701851424505</v>
+        <v>4.68292885316</v>
       </c>
       <c r="S10">
-        <v>0.09045122797855099</v>
+        <v>0.2531397066536403</v>
       </c>
       <c r="T10">
-        <v>0.1046360673260368</v>
+        <v>0.3021463515355985</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,40 +1104,40 @@
         <v>1.655405</v>
       </c>
       <c r="I11">
-        <v>0.1368111390079702</v>
+        <v>0.3451171563299485</v>
       </c>
       <c r="J11">
-        <v>0.1690618383116417</v>
+        <v>0.441492428723751</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1141763333333333</v>
+        <v>0.1251046666666667</v>
       </c>
       <c r="N11">
-        <v>0.342529</v>
+        <v>0.375314</v>
       </c>
       <c r="O11">
-        <v>0.06751252867314916</v>
+        <v>0.06487598009334153</v>
       </c>
       <c r="P11">
-        <v>0.0948022067531651</v>
+        <v>0.09079784938328471</v>
       </c>
       <c r="Q11">
-        <v>0.06300269102722222</v>
+        <v>0.06903296357444444</v>
       </c>
       <c r="R11">
-        <v>0.567024219245</v>
+        <v>0.62129667217</v>
       </c>
       <c r="S11">
-        <v>0.009236465945081783</v>
+        <v>0.02238981376393237</v>
       </c>
       <c r="T11">
-        <v>0.01602743534969043</v>
+        <v>0.0400865630471197</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H12">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I12">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J12">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1178,28 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.3423605</v>
+        <v>0.2371515</v>
       </c>
       <c r="N12">
-        <v>0.684721</v>
+        <v>0.474303</v>
       </c>
       <c r="O12">
-        <v>0.2024379518768077</v>
+        <v>0.1229805122625808</v>
       </c>
       <c r="P12">
-        <v>0.1895111415682583</v>
+        <v>0.1147457658281868</v>
       </c>
       <c r="Q12">
-        <v>0.11451393830175</v>
+        <v>0.10720516560525</v>
       </c>
       <c r="R12">
-        <v>0.458055753207</v>
+        <v>0.428820662421</v>
       </c>
       <c r="S12">
-        <v>0.01678823672633756</v>
+        <v>0.03477039906949109</v>
       </c>
       <c r="T12">
-        <v>0.01294734637764537</v>
+        <v>0.0276678554546378</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H13">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I13">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J13">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1249,22 +1246,22 @@
         <v>0.309653</v>
       </c>
       <c r="O13">
-        <v>0.0610326630481701</v>
+        <v>0.05352595923371758</v>
       </c>
       <c r="P13">
-        <v>0.08570307252156119</v>
+        <v>0.07491281022046142</v>
       </c>
       <c r="Q13">
-        <v>0.0345246064085</v>
+        <v>0.04665990747849999</v>
       </c>
       <c r="R13">
-        <v>0.207147638451</v>
+        <v>0.2799594448709999</v>
       </c>
       <c r="S13">
-        <v>0.005061456045134301</v>
+        <v>0.01513344617690256</v>
       </c>
       <c r="T13">
-        <v>0.005855209125873197</v>
+        <v>0.01806320947810779</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H14">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I14">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J14">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.01332233333333333</v>
+        <v>0.04845666666666667</v>
       </c>
       <c r="N14">
-        <v>0.039967</v>
+        <v>0.14537</v>
       </c>
       <c r="O14">
-        <v>0.007877503024502313</v>
+        <v>0.02512834913211087</v>
       </c>
       <c r="P14">
-        <v>0.01106171972972726</v>
+        <v>0.03516864109744933</v>
       </c>
       <c r="Q14">
-        <v>0.0044561006815</v>
+        <v>0.021905005765</v>
       </c>
       <c r="R14">
-        <v>0.026736604089</v>
+        <v>0.13143003459</v>
       </c>
       <c r="S14">
-        <v>0.0006532835585506442</v>
+        <v>0.007104562431936154</v>
       </c>
       <c r="T14">
-        <v>0.0007557334924375804</v>
+        <v>0.008479971974540954</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H15">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I15">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J15">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.1181105</v>
+        <v>1.414436</v>
       </c>
       <c r="N15">
-        <v>2.236221</v>
+        <v>2.828872</v>
       </c>
       <c r="O15">
-        <v>0.6611393533773707</v>
+        <v>0.7334891992782493</v>
       </c>
       <c r="P15">
-        <v>0.6189218594272882</v>
+        <v>0.6843749334706176</v>
       </c>
       <c r="Q15">
-        <v>0.37398951342675</v>
+        <v>0.639400744326</v>
       </c>
       <c r="R15">
-        <v>1.495958053707</v>
+        <v>2.557602977304</v>
       </c>
       <c r="S15">
-        <v>0.05482847396298245</v>
+        <v>0.2073801100910376</v>
       </c>
       <c r="T15">
-        <v>0.04228456241880197</v>
+        <v>0.1650186096138379</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,681 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3344835</v>
+        <v>0.4520535</v>
       </c>
       <c r="H16">
-        <v>0.668967</v>
+        <v>0.904107</v>
       </c>
       <c r="I16">
-        <v>0.08293028343101366</v>
+        <v>0.2827309663115679</v>
       </c>
       <c r="J16">
-        <v>0.06831971075949632</v>
+        <v>0.2411231059807989</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1141763333333333</v>
+        <v>0.1251046666666667</v>
       </c>
       <c r="N16">
-        <v>0.342529</v>
+        <v>0.375314</v>
       </c>
       <c r="O16">
-        <v>0.06751252867314916</v>
+        <v>0.06487598009334153</v>
       </c>
       <c r="P16">
-        <v>0.0948022067531651</v>
+        <v>0.09079784938328471</v>
       </c>
       <c r="Q16">
-        <v>0.0381900995905</v>
+        <v>0.056554002433</v>
       </c>
       <c r="R16">
-        <v>0.229140597543</v>
+        <v>0.339324014598</v>
       </c>
       <c r="S16">
-        <v>0.005598833138008697</v>
+        <v>0.01834244854220049</v>
       </c>
       <c r="T16">
-        <v>0.006476859344738208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H17">
-        <v>2.971649</v>
-      </c>
-      <c r="I17">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J17">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.3423605</v>
-      </c>
-      <c r="N17">
-        <v>0.684721</v>
-      </c>
-      <c r="O17">
-        <v>0.2024379518768077</v>
-      </c>
-      <c r="P17">
-        <v>0.1895111415682583</v>
-      </c>
-      <c r="Q17">
-        <v>0.3391250791548333</v>
-      </c>
-      <c r="R17">
-        <v>2.034750474929</v>
-      </c>
-      <c r="S17">
-        <v>0.04971719768895854</v>
-      </c>
-      <c r="T17">
-        <v>0.05751400131214766</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H18">
-        <v>2.971649</v>
-      </c>
-      <c r="I18">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J18">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.1032176666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.309653</v>
-      </c>
-      <c r="O18">
-        <v>0.0610326630481701</v>
-      </c>
-      <c r="P18">
-        <v>0.08570307252156119</v>
-      </c>
-      <c r="Q18">
-        <v>0.1022422253107778</v>
-      </c>
-      <c r="R18">
-        <v>0.9201800277969999</v>
-      </c>
-      <c r="S18">
-        <v>0.01498915073047181</v>
-      </c>
-      <c r="T18">
-        <v>0.02600969306960128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H19">
-        <v>2.971649</v>
-      </c>
-      <c r="I19">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J19">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.01332233333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.039967</v>
-      </c>
-      <c r="O19">
-        <v>0.007877503024502313</v>
-      </c>
-      <c r="P19">
-        <v>0.01106171972972726</v>
-      </c>
-      <c r="Q19">
-        <v>0.01319643284255555</v>
-      </c>
-      <c r="R19">
-        <v>0.118767895583</v>
-      </c>
-      <c r="S19">
-        <v>0.001934653910166434</v>
-      </c>
-      <c r="T19">
-        <v>0.003357078416526739</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H20">
-        <v>2.971649</v>
-      </c>
-      <c r="I20">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J20">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.1181105</v>
-      </c>
-      <c r="N20">
-        <v>2.236221</v>
-      </c>
-      <c r="O20">
-        <v>0.6611393533773707</v>
-      </c>
-      <c r="P20">
-        <v>0.6189218594272882</v>
-      </c>
-      <c r="Q20">
-        <v>1.1075439830715</v>
-      </c>
-      <c r="R20">
-        <v>6.645263898429</v>
-      </c>
-      <c r="S20">
-        <v>0.1623707196554517</v>
-      </c>
-      <c r="T20">
-        <v>0.1878341945526019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.9905496666666666</v>
-      </c>
-      <c r="H21">
-        <v>2.971649</v>
-      </c>
-      <c r="I21">
-        <v>0.2455922776733763</v>
-      </c>
-      <c r="J21">
-        <v>0.3034861213763108</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.1141763333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.342529</v>
-      </c>
-      <c r="O21">
-        <v>0.06751252867314916</v>
-      </c>
-      <c r="P21">
-        <v>0.0948022067531651</v>
-      </c>
-      <c r="Q21">
-        <v>0.1130973289245555</v>
-      </c>
-      <c r="R21">
-        <v>1.017875960321</v>
-      </c>
-      <c r="S21">
-        <v>0.01658055568832783</v>
-      </c>
-      <c r="T21">
-        <v>0.02877115402543317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H22">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I22">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J22">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.5</v>
-      </c>
-      <c r="M22">
-        <v>0.3423605</v>
-      </c>
-      <c r="N22">
-        <v>0.684721</v>
-      </c>
-      <c r="O22">
-        <v>0.2024379518768077</v>
-      </c>
-      <c r="P22">
-        <v>0.1895111415682583</v>
-      </c>
-      <c r="Q22">
-        <v>0.06256387073133332</v>
-      </c>
-      <c r="R22">
-        <v>0.375383224388</v>
-      </c>
-      <c r="S22">
-        <v>0.009172132999093217</v>
-      </c>
-      <c r="T22">
-        <v>0.01061053506364853</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H23">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I23">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J23">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M23">
-        <v>0.1032176666666667</v>
-      </c>
-      <c r="N23">
-        <v>0.309653</v>
-      </c>
-      <c r="O23">
-        <v>0.0610326630481701</v>
-      </c>
-      <c r="P23">
-        <v>0.08570307252156119</v>
-      </c>
-      <c r="Q23">
-        <v>0.01886227165377777</v>
-      </c>
-      <c r="R23">
-        <v>0.169760444884</v>
-      </c>
-      <c r="S23">
-        <v>0.002765290290564295</v>
-      </c>
-      <c r="T23">
-        <v>0.004798427409213326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H24">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I24">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J24">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.01332233333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.039967</v>
-      </c>
-      <c r="O24">
-        <v>0.007877503024502313</v>
-      </c>
-      <c r="P24">
-        <v>0.01106171972972726</v>
-      </c>
-      <c r="Q24">
-        <v>0.002434558719555555</v>
-      </c>
-      <c r="R24">
-        <v>0.021911028476</v>
-      </c>
-      <c r="S24">
-        <v>0.0003569167973279225</v>
-      </c>
-      <c r="T24">
-        <v>0.0006193343783655543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H25">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J25">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.1181105</v>
-      </c>
-      <c r="N25">
-        <v>2.236221</v>
-      </c>
-      <c r="O25">
-        <v>0.6611393533773707</v>
-      </c>
-      <c r="P25">
-        <v>0.6189218594272882</v>
-      </c>
-      <c r="Q25">
-        <v>0.204326494398</v>
-      </c>
-      <c r="R25">
-        <v>1.225958966388</v>
-      </c>
-      <c r="S25">
-        <v>0.02995514439803253</v>
-      </c>
-      <c r="T25">
-        <v>0.03465280213483619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.1827426666666666</v>
-      </c>
-      <c r="H26">
-        <v>0.5482279999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.0453083669048127</v>
-      </c>
-      <c r="J26">
-        <v>0.05598897761811442</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.1141763333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.342529</v>
-      </c>
-      <c r="O26">
-        <v>0.06751252867314916</v>
-      </c>
-      <c r="P26">
-        <v>0.0948022067531651</v>
-      </c>
-      <c r="Q26">
-        <v>0.02086488762355555</v>
-      </c>
-      <c r="R26">
-        <v>0.187783988612</v>
-      </c>
-      <c r="S26">
-        <v>0.00305888241979473</v>
-      </c>
-      <c r="T26">
-        <v>0.005307878632050816</v>
+        <v>0.02189345945967437</v>
       </c>
     </row>
   </sheetData>
